--- a/Data/liste des produits BVP treville.xlsx
+++ b/Data/liste des produits BVP treville.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rudyremy/Developer/BVP-Planning/bvp-planning/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7037DE-BEC1-DE41-8055-8DDA4BF55493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5252F87E-A15B-A44A-8B65-AB946A5BE8CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="17440" xr2:uid="{407527EE-807D-B84B-9943-F706699C3F63}"/>
+    <workbookView xWindow="0" yWindow="800" windowWidth="29400" windowHeight="17440" xr2:uid="{407527EE-807D-B84B-9943-F706699C3F63}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3407" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3590" uniqueCount="465">
   <si>
     <t>Libellé produit</t>
   </si>
@@ -1425,6 +1425,12 @@
   </si>
   <si>
     <t>Nombre d'unit par plaque</t>
+  </si>
+  <si>
+    <t>PLU</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -1469,7 +1475,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1487,9 +1496,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4E6295AB-DDFD-1E4E-A563-AB579AC9D28A}" name="Tableau1" displayName="Tableau1" ref="A1:N378" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:N378" xr:uid="{4E6295AB-DDFD-1E4E-A563-AB579AC9D28A}"/>
-  <tableColumns count="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4E6295AB-DDFD-1E4E-A563-AB579AC9D28A}" name="Tableau1" displayName="Tableau1" ref="A1:O378" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:O378" xr:uid="{4E6295AB-DDFD-1E4E-A563-AB579AC9D28A}"/>
+  <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{D9AA7093-A33E-3944-827E-C4B2082B25C0}" name="Libellé produit"/>
     <tableColumn id="2" xr3:uid="{DB9F3AEB-5F2A-6E4A-8833-C5097B0A7B41}" name="unit / lot"/>
     <tableColumn id="14" xr3:uid="{BAE9E28F-20F8-3D4E-979F-95C155C78412}" name="Nombre d'unit par plaque"/>
@@ -1504,6 +1513,7 @@
     <tableColumn id="11" xr3:uid="{081E446F-94EE-0A43-BD87-F5EABB2651AF}" name="ITM8"/>
     <tableColumn id="12" xr3:uid="{896704D9-4B18-CE40-909A-D6EA36894AB9}" name="Gestion"/>
     <tableColumn id="13" xr3:uid="{C339E361-4ACC-7146-8C89-A43BFF2AD3B6}" name="RAYON"/>
+    <tableColumn id="15" xr3:uid="{62594CF2-AB43-DC46-8B94-3A3C1B037B02}" name="PLU" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1729,10 +1739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E9BB8B0-5286-1C40-B70C-5F9BA92D853F}">
-  <dimension ref="A1:N378"/>
+  <dimension ref="A1:O378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1751,7 +1761,7 @@
     <col min="14" max="14" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1794,8 +1804,11 @@
       <c r="N1" s="1" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O1" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1838,8 +1851,11 @@
       <c r="N2" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1883,7 +1899,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1926,8 +1942,11 @@
       <c r="N4" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4">
+        <v>3052</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1970,8 +1989,11 @@
       <c r="N5" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -2014,8 +2036,11 @@
       <c r="N6" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O6">
+        <v>10106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -2058,8 +2083,11 @@
       <c r="N7" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -2102,8 +2130,11 @@
       <c r="N8" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -2146,8 +2177,11 @@
       <c r="N9" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9">
+        <v>7974</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -2190,8 +2224,11 @@
       <c r="N10" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10">
+        <v>10225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -2234,8 +2271,11 @@
       <c r="N11" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11">
+        <v>7975</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -2278,8 +2318,11 @@
       <c r="N12" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -2322,8 +2365,11 @@
       <c r="N13" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -2366,8 +2412,11 @@
       <c r="N14" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -2410,8 +2459,11 @@
       <c r="N15" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15">
+        <v>9271</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -2454,8 +2506,11 @@
       <c r="N16" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O16">
+        <v>10330</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -2498,8 +2553,11 @@
       <c r="N17" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O17">
+        <v>10309</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -2542,8 +2600,11 @@
       <c r="N18" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O18">
+        <v>10170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -2586,8 +2647,11 @@
       <c r="N19" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O19">
+        <v>12622</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -2630,8 +2694,11 @@
       <c r="N20" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O20">
+        <v>10160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -2674,8 +2741,11 @@
       <c r="N21" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O21">
+        <v>10209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -2718,8 +2788,11 @@
       <c r="N22" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O22">
+        <v>10208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -2762,8 +2835,11 @@
       <c r="N23" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O23">
+        <v>10159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -2806,8 +2882,11 @@
       <c r="N24" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O24">
+        <v>10989</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -2850,8 +2929,11 @@
       <c r="N25" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O25">
+        <v>11889</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -2894,8 +2976,11 @@
       <c r="N26" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O26">
+        <v>11982</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -2938,8 +3023,11 @@
       <c r="N27" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O27">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -2982,8 +3070,11 @@
       <c r="N28" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O28">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -3026,8 +3117,11 @@
       <c r="N29" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O29">
+        <v>10730</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -3070,8 +3164,11 @@
       <c r="N30" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O30">
+        <v>8984</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -3114,8 +3211,11 @@
       <c r="N31" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O31">
+        <v>10226</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -3158,8 +3258,11 @@
       <c r="N32" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O32">
+        <v>10331</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>57</v>
       </c>
@@ -3202,8 +3305,11 @@
       <c r="N33" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O33">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>58</v>
       </c>
@@ -3246,8 +3352,11 @@
       <c r="N34" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O34">
+        <v>9435</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>59</v>
       </c>
@@ -3290,8 +3399,11 @@
       <c r="N35" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O35">
+        <v>10312</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>60</v>
       </c>
@@ -3334,8 +3446,11 @@
       <c r="N36" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O36">
+        <v>12414</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>61</v>
       </c>
@@ -3378,8 +3493,11 @@
       <c r="N37" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O37">
+        <v>11981</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>62</v>
       </c>
@@ -3422,8 +3540,11 @@
       <c r="N38" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O38">
+        <v>11900</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>63</v>
       </c>
@@ -3466,8 +3587,11 @@
       <c r="N39" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O39">
+        <v>10207</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>64</v>
       </c>
@@ -3510,8 +3634,11 @@
       <c r="N40" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O40">
+        <v>10948</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>66</v>
       </c>
@@ -3554,8 +3681,11 @@
       <c r="N41" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O41">
+        <v>10949</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>67</v>
       </c>
@@ -3598,8 +3728,11 @@
       <c r="N42" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O42">
+        <v>10950</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>68</v>
       </c>
@@ -3642,8 +3775,11 @@
       <c r="N43" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O43">
+        <v>10947</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>69</v>
       </c>
@@ -3686,8 +3822,11 @@
       <c r="N44" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O44">
+        <v>10212</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>71</v>
       </c>
@@ -3730,8 +3869,11 @@
       <c r="N45" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O45">
+        <v>10213</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>72</v>
       </c>
@@ -3774,8 +3916,11 @@
       <c r="N46" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O46">
+        <v>10211</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>73</v>
       </c>
@@ -3818,8 +3963,11 @@
       <c r="N47" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O47">
+        <v>10210</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>74</v>
       </c>
@@ -3862,8 +4010,11 @@
       <c r="N48" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O48">
+        <v>10227</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>75</v>
       </c>
@@ -3906,8 +4057,11 @@
       <c r="N49" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O49">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>77</v>
       </c>
@@ -3950,8 +4104,11 @@
       <c r="N50" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O50">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>78</v>
       </c>
@@ -3994,8 +4151,11 @@
       <c r="N51" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O51">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>79</v>
       </c>
@@ -4038,8 +4198,11 @@
       <c r="N52" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O52">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>80</v>
       </c>
@@ -4082,8 +4245,11 @@
       <c r="N53" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O53">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>81</v>
       </c>
@@ -4126,8 +4292,11 @@
       <c r="N54" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O54">
+        <v>10698</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>82</v>
       </c>
@@ -4170,8 +4339,11 @@
       <c r="N55" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O55">
+        <v>10697</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>83</v>
       </c>
@@ -4214,8 +4386,11 @@
       <c r="N56" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O56">
+        <v>10224</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>84</v>
       </c>
@@ -4258,8 +4433,11 @@
       <c r="N57" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O57">
+        <v>40031</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>86</v>
       </c>
@@ -4302,8 +4480,11 @@
       <c r="N58" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O58">
+        <v>41188</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>87</v>
       </c>
@@ -4346,8 +4527,11 @@
       <c r="N59" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O59">
+        <v>40938</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>88</v>
       </c>
@@ -4390,8 +4574,11 @@
       <c r="N60" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O60">
+        <v>9272</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>90</v>
       </c>
@@ -4434,8 +4621,11 @@
       <c r="N61" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O61">
+        <v>40674</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>92</v>
       </c>
@@ -4478,8 +4668,11 @@
       <c r="N62" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O62">
+        <v>40673</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>93</v>
       </c>
@@ -4522,8 +4715,11 @@
       <c r="N63" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O63">
+        <v>8982</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>94</v>
       </c>
@@ -4566,8 +4762,11 @@
       <c r="N64" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O64">
+        <v>8914</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>95</v>
       </c>
@@ -4610,8 +4809,11 @@
       <c r="N65" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O65">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>96</v>
       </c>
@@ -4654,8 +4856,11 @@
       <c r="N66" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O66">
+        <v>8912</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>97</v>
       </c>
@@ -4698,8 +4903,11 @@
       <c r="N67" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O67">
+        <v>10317</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>98</v>
       </c>
@@ -4742,8 +4950,11 @@
       <c r="N68" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O68" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>104</v>
       </c>
@@ -4786,8 +4997,11 @@
       <c r="N69" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O69" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>105</v>
       </c>
@@ -4830,8 +5044,11 @@
       <c r="N70" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O70" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>106</v>
       </c>
@@ -4874,8 +5091,11 @@
       <c r="N71" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O71" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>107</v>
       </c>
@@ -4918,8 +5138,11 @@
       <c r="N72" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O72" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>108</v>
       </c>
@@ -4962,8 +5185,11 @@
       <c r="N73" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O73" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>109</v>
       </c>
@@ -5006,8 +5232,11 @@
       <c r="N74" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O74" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>110</v>
       </c>
@@ -5050,8 +5279,11 @@
       <c r="N75" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O75" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>111</v>
       </c>
@@ -5094,8 +5326,11 @@
       <c r="N76" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O76" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>112</v>
       </c>
@@ -5138,8 +5373,11 @@
       <c r="N77" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O77" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>113</v>
       </c>
@@ -5182,8 +5420,11 @@
       <c r="N78" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O78" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>114</v>
       </c>
@@ -5226,8 +5467,11 @@
       <c r="N79" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O79" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>115</v>
       </c>
@@ -5270,8 +5514,11 @@
       <c r="N80" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O80" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>116</v>
       </c>
@@ -5314,8 +5561,11 @@
       <c r="N81" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O81" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>117</v>
       </c>
@@ -5358,8 +5608,11 @@
       <c r="N82" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O82" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>118</v>
       </c>
@@ -5402,8 +5655,11 @@
       <c r="N83" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O83" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>119</v>
       </c>
@@ -5446,8 +5702,11 @@
       <c r="N84" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O84" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>120</v>
       </c>
@@ -5490,8 +5749,11 @@
       <c r="N85" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O85" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>121</v>
       </c>
@@ -5534,8 +5796,11 @@
       <c r="N86" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O86" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>123</v>
       </c>
@@ -5578,8 +5843,11 @@
       <c r="N87" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O87" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>124</v>
       </c>
@@ -5622,8 +5890,11 @@
       <c r="N88" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O88" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>125</v>
       </c>
@@ -5666,8 +5937,11 @@
       <c r="N89" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O89" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>126</v>
       </c>
@@ -5710,8 +5984,11 @@
       <c r="N90" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O90" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>127</v>
       </c>
@@ -5754,8 +6031,11 @@
       <c r="N91" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O91" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>128</v>
       </c>
@@ -5798,8 +6078,11 @@
       <c r="N92" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O92" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>129</v>
       </c>
@@ -5842,8 +6125,11 @@
       <c r="N93" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O93" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>130</v>
       </c>
@@ -5886,8 +6172,11 @@
       <c r="N94" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O94" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>131</v>
       </c>
@@ -5930,8 +6219,11 @@
       <c r="N95" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O95" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>132</v>
       </c>
@@ -5974,8 +6266,11 @@
       <c r="N96" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O96" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>133</v>
       </c>
@@ -6018,8 +6313,11 @@
       <c r="N97" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O97" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>134</v>
       </c>
@@ -6062,8 +6360,11 @@
       <c r="N98" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O98" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>135</v>
       </c>
@@ -6106,8 +6407,11 @@
       <c r="N99" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O99" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>137</v>
       </c>
@@ -6150,8 +6454,11 @@
       <c r="N100" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O100" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>138</v>
       </c>
@@ -6194,8 +6501,11 @@
       <c r="N101" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O101" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>139</v>
       </c>
@@ -6238,8 +6548,11 @@
       <c r="N102" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O102" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>140</v>
       </c>
@@ -6282,8 +6595,11 @@
       <c r="N103" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O103" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>141</v>
       </c>
@@ -6326,8 +6642,11 @@
       <c r="N104" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O104" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>142</v>
       </c>
@@ -6370,8 +6689,11 @@
       <c r="N105" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O105" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>143</v>
       </c>
@@ -6414,8 +6736,11 @@
       <c r="N106" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O106" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>144</v>
       </c>
@@ -6458,8 +6783,11 @@
       <c r="N107" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O107" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>145</v>
       </c>
@@ -6502,8 +6830,11 @@
       <c r="N108" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O108" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>146</v>
       </c>
@@ -6546,8 +6877,11 @@
       <c r="N109" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O109" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>147</v>
       </c>
@@ -6590,8 +6924,11 @@
       <c r="N110" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O110" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>148</v>
       </c>
@@ -6634,8 +6971,11 @@
       <c r="N111" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O111" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>149</v>
       </c>
@@ -6678,8 +7018,11 @@
       <c r="N112" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O112" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>151</v>
       </c>
@@ -6722,8 +7065,11 @@
       <c r="N113" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O113" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>152</v>
       </c>
@@ -6766,8 +7112,11 @@
       <c r="N114" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O114" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>153</v>
       </c>
@@ -6810,8 +7159,11 @@
       <c r="N115" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O115" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>154</v>
       </c>
@@ -6854,8 +7206,11 @@
       <c r="N116" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O116" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>156</v>
       </c>
@@ -6898,8 +7253,11 @@
       <c r="N117" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O117" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>157</v>
       </c>
@@ -6942,8 +7300,11 @@
       <c r="N118" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O118" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>158</v>
       </c>
@@ -6986,8 +7347,11 @@
       <c r="N119" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O119" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>161</v>
       </c>
@@ -7030,8 +7394,11 @@
       <c r="N120" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O120" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>162</v>
       </c>
@@ -7074,8 +7441,11 @@
       <c r="N121" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O121" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>163</v>
       </c>
@@ -7118,8 +7488,11 @@
       <c r="N122" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O122" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>165</v>
       </c>
@@ -7162,8 +7535,11 @@
       <c r="N123" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O123" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>166</v>
       </c>
@@ -7206,8 +7582,11 @@
       <c r="N124" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O124" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>168</v>
       </c>
@@ -7250,8 +7629,11 @@
       <c r="N125" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O125" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>169</v>
       </c>
@@ -7294,8 +7676,11 @@
       <c r="N126" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O126" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>170</v>
       </c>
@@ -7338,8 +7723,11 @@
       <c r="N127" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O127" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>171</v>
       </c>
@@ -7382,8 +7770,11 @@
       <c r="N128" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O128" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>172</v>
       </c>
@@ -7426,8 +7817,11 @@
       <c r="N129" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O129" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>173</v>
       </c>
@@ -7470,8 +7864,11 @@
       <c r="N130" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O130" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>174</v>
       </c>
@@ -7514,8 +7911,11 @@
       <c r="N131" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O131" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>175</v>
       </c>
@@ -7558,8 +7958,11 @@
       <c r="N132" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O132" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>176</v>
       </c>
@@ -7602,8 +8005,11 @@
       <c r="N133" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O133" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>177</v>
       </c>
@@ -7646,8 +8052,11 @@
       <c r="N134" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O134" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>178</v>
       </c>
@@ -7690,8 +8099,11 @@
       <c r="N135" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O135" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>179</v>
       </c>
@@ -7734,8 +8146,11 @@
       <c r="N136" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O136" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>180</v>
       </c>
@@ -7778,8 +8193,11 @@
       <c r="N137" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O137" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>181</v>
       </c>
@@ -7822,8 +8240,11 @@
       <c r="N138" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O138" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>182</v>
       </c>
@@ -7866,8 +8287,11 @@
       <c r="N139" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O139" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>183</v>
       </c>
@@ -7910,8 +8334,11 @@
       <c r="N140" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O140" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>184</v>
       </c>
@@ -7954,8 +8381,11 @@
       <c r="N141" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O141" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>185</v>
       </c>
@@ -7998,8 +8428,11 @@
       <c r="N142" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O142" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>186</v>
       </c>
@@ -8042,8 +8475,11 @@
       <c r="N143" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O143" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>187</v>
       </c>
@@ -8086,8 +8522,11 @@
       <c r="N144" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O144" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>188</v>
       </c>
@@ -8130,8 +8569,11 @@
       <c r="N145" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O145" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>189</v>
       </c>
@@ -8174,8 +8616,11 @@
       <c r="N146" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O146" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>190</v>
       </c>
@@ -8218,8 +8663,11 @@
       <c r="N147" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O147" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>191</v>
       </c>
@@ -8262,8 +8710,11 @@
       <c r="N148" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O148" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>192</v>
       </c>
@@ -8306,8 +8757,11 @@
       <c r="N149" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O149">
+        <v>40250</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>193</v>
       </c>
@@ -8350,8 +8804,11 @@
       <c r="N150" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O150">
+        <v>40229</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>194</v>
       </c>
@@ -8394,8 +8851,11 @@
       <c r="N151" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O151" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>195</v>
       </c>
@@ -8438,8 +8898,11 @@
       <c r="N152" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O152" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>196</v>
       </c>
@@ -8482,8 +8945,11 @@
       <c r="N153" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O153" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>198</v>
       </c>
@@ -8526,8 +8992,11 @@
       <c r="N154" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O154" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>199</v>
       </c>
@@ -8570,8 +9039,11 @@
       <c r="N155" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O155" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>200</v>
       </c>
@@ -8614,8 +9086,11 @@
       <c r="N156" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O156" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>201</v>
       </c>
@@ -8658,8 +9133,11 @@
       <c r="N157" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O157" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>202</v>
       </c>
@@ -8702,8 +9180,11 @@
       <c r="N158" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O158" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>203</v>
       </c>
@@ -8746,8 +9227,11 @@
       <c r="N159" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O159" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>204</v>
       </c>
@@ -8790,8 +9274,11 @@
       <c r="N160" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O160" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>205</v>
       </c>
@@ -8834,8 +9321,11 @@
       <c r="N161" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O161" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>206</v>
       </c>
@@ -8878,8 +9368,11 @@
       <c r="N162" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O162" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>207</v>
       </c>
@@ -8922,8 +9415,11 @@
       <c r="N163" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O163" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>208</v>
       </c>
@@ -8966,8 +9462,11 @@
       <c r="N164" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O164" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>209</v>
       </c>
@@ -9010,8 +9509,11 @@
       <c r="N165" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O165" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>211</v>
       </c>
@@ -9054,8 +9556,11 @@
       <c r="N166" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O166" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>212</v>
       </c>
@@ -9098,8 +9603,11 @@
       <c r="N167" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O167" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>213</v>
       </c>
@@ -9142,8 +9650,11 @@
       <c r="N168" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O168" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>214</v>
       </c>
@@ -9186,8 +9697,11 @@
       <c r="N169" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O169" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>215</v>
       </c>
@@ -9230,8 +9744,11 @@
       <c r="N170" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O170" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>216</v>
       </c>
@@ -9274,8 +9791,11 @@
       <c r="N171" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O171" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>217</v>
       </c>
@@ -9318,8 +9838,11 @@
       <c r="N172" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O172" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>218</v>
       </c>
@@ -9362,8 +9885,11 @@
       <c r="N173" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O173" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>219</v>
       </c>
@@ -9406,8 +9932,11 @@
       <c r="N174" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O174" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>220</v>
       </c>
@@ -9450,8 +9979,11 @@
       <c r="N175" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O175" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>222</v>
       </c>
@@ -9494,8 +10026,11 @@
       <c r="N176" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O176">
+        <v>10734</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>223</v>
       </c>
@@ -9538,8 +10073,11 @@
       <c r="N177" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O177">
+        <v>10735</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>224</v>
       </c>
@@ -9582,8 +10120,11 @@
       <c r="N178" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O178" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>225</v>
       </c>
@@ -9626,8 +10167,11 @@
       <c r="N179" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O179" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>226</v>
       </c>
@@ -9670,8 +10214,11 @@
       <c r="N180" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O180" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>227</v>
       </c>
@@ -9714,8 +10261,11 @@
       <c r="N181" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O181" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>228</v>
       </c>
@@ -9758,8 +10308,11 @@
       <c r="N182" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O182" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>229</v>
       </c>
@@ -9802,8 +10355,11 @@
       <c r="N183" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O183" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>230</v>
       </c>
@@ -9846,8 +10402,11 @@
       <c r="N184" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O184" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>231</v>
       </c>
@@ -9890,8 +10449,11 @@
       <c r="N185" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O185" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>232</v>
       </c>
@@ -9934,8 +10496,11 @@
       <c r="N186" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O186" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>233</v>
       </c>
@@ -9978,8 +10543,11 @@
       <c r="N187" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O187">
+        <v>12784</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>234</v>
       </c>
@@ -10022,8 +10590,11 @@
       <c r="N188" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O188">
+        <v>10586</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>235</v>
       </c>
@@ -10066,8 +10637,11 @@
       <c r="N189" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O189" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>236</v>
       </c>
@@ -10110,8 +10684,11 @@
       <c r="N190" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O190">
+        <v>10401</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>237</v>
       </c>
@@ -10154,8 +10731,11 @@
       <c r="N191" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O191" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>238</v>
       </c>
@@ -10198,8 +10778,11 @@
       <c r="N192" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O192" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>239</v>
       </c>
@@ -10242,8 +10825,11 @@
       <c r="N193" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O193">
+        <v>10403</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>240</v>
       </c>
@@ -10286,8 +10872,11 @@
       <c r="N194" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O194" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>241</v>
       </c>
@@ -10330,8 +10919,11 @@
       <c r="N195" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O195" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>242</v>
       </c>
@@ -10374,8 +10966,11 @@
       <c r="N196" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O196" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>243</v>
       </c>
@@ -10418,8 +11013,11 @@
       <c r="N197" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O197" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>244</v>
       </c>
@@ -10462,8 +11060,11 @@
       <c r="N198" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O198" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>245</v>
       </c>
@@ -10506,8 +11107,11 @@
       <c r="N199" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O199" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>247</v>
       </c>
@@ -10550,8 +11154,11 @@
       <c r="N200" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O200" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>248</v>
       </c>
@@ -10594,8 +11201,11 @@
       <c r="N201" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O201" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>249</v>
       </c>
@@ -10638,8 +11248,11 @@
       <c r="N202" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O202" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>250</v>
       </c>
@@ -10682,8 +11295,11 @@
       <c r="N203" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O203" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>251</v>
       </c>
@@ -10726,8 +11342,11 @@
       <c r="N204" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O204" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>252</v>
       </c>
@@ -10770,8 +11389,11 @@
       <c r="N205" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O205" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>253</v>
       </c>
@@ -10814,8 +11436,11 @@
       <c r="N206" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O206">
+        <v>40785</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>254</v>
       </c>
@@ -10858,8 +11483,11 @@
       <c r="N207" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O207">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>255</v>
       </c>
@@ -10902,8 +11530,11 @@
       <c r="N208" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O208" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>256</v>
       </c>
@@ -10946,8 +11577,11 @@
       <c r="N209" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O209" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>257</v>
       </c>
@@ -10990,8 +11624,11 @@
       <c r="N210" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O210" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>258</v>
       </c>
@@ -11034,8 +11671,11 @@
       <c r="N211" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O211" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>259</v>
       </c>
@@ -11078,8 +11718,11 @@
       <c r="N212" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O212">
+        <v>10400</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>260</v>
       </c>
@@ -11122,8 +11765,11 @@
       <c r="N213" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O213">
+        <v>12906</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>261</v>
       </c>
@@ -11166,8 +11812,11 @@
       <c r="N214" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O214">
+        <v>12905</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>262</v>
       </c>
@@ -11210,8 +11859,11 @@
       <c r="N215" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O215">
+        <v>12904</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>263</v>
       </c>
@@ -11254,8 +11906,11 @@
       <c r="N216" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O216">
+        <v>10073</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>265</v>
       </c>
@@ -11298,8 +11953,11 @@
       <c r="N217" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O217">
+        <v>8762</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>266</v>
       </c>
@@ -11342,8 +12000,11 @@
       <c r="N218" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O218" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>267</v>
       </c>
@@ -11386,8 +12047,11 @@
       <c r="N219" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O219">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>268</v>
       </c>
@@ -11430,8 +12094,11 @@
       <c r="N220" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O220">
+        <v>45294</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>269</v>
       </c>
@@ -11474,8 +12141,11 @@
       <c r="N221" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O221">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>270</v>
       </c>
@@ -11518,8 +12188,11 @@
       <c r="N222" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O222" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>271</v>
       </c>
@@ -11562,8 +12235,11 @@
       <c r="N223" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O223">
+        <v>12893</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>273</v>
       </c>
@@ -11606,8 +12282,11 @@
       <c r="N224" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O224">
+        <v>10366</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>274</v>
       </c>
@@ -11650,8 +12329,11 @@
       <c r="N225" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O225">
+        <v>12785</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>275</v>
       </c>
@@ -11694,8 +12376,11 @@
       <c r="N226" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O226">
+        <v>4059</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>276</v>
       </c>
@@ -11738,8 +12423,11 @@
       <c r="N227" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O227">
+        <v>10256</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>277</v>
       </c>
@@ -11782,8 +12470,11 @@
       <c r="N228" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O228" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>278</v>
       </c>
@@ -11826,8 +12517,11 @@
       <c r="N229" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O229" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>279</v>
       </c>
@@ -11870,8 +12564,11 @@
       <c r="N230" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O230" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>280</v>
       </c>
@@ -11914,8 +12611,11 @@
       <c r="N231" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O231">
+        <v>10402</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>282</v>
       </c>
@@ -11958,8 +12658,11 @@
       <c r="N232" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O232" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>283</v>
       </c>
@@ -12002,8 +12705,11 @@
       <c r="N233" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O233" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>284</v>
       </c>
@@ -12046,8 +12752,11 @@
       <c r="N234" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O234" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>286</v>
       </c>
@@ -12090,8 +12799,11 @@
       <c r="N235" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O235" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>287</v>
       </c>
@@ -12134,8 +12846,11 @@
       <c r="N236" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O236">
+        <v>6577</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>289</v>
       </c>
@@ -12178,8 +12893,11 @@
       <c r="N237" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O237">
+        <v>6576</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>290</v>
       </c>
@@ -12222,8 +12940,11 @@
       <c r="N238" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O238">
+        <v>5421</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>291</v>
       </c>
@@ -12266,8 +12987,11 @@
       <c r="N239" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O239">
+        <v>12783</v>
+      </c>
+    </row>
+    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>292</v>
       </c>
@@ -12310,8 +13034,11 @@
       <c r="N240" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O240">
+        <v>12782</v>
+      </c>
+    </row>
+    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>293</v>
       </c>
@@ -12354,8 +13081,11 @@
       <c r="N241" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O241">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>294</v>
       </c>
@@ -12398,8 +13128,11 @@
       <c r="N242" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O242">
+        <v>12894</v>
+      </c>
+    </row>
+    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>296</v>
       </c>
@@ -12442,8 +13175,11 @@
       <c r="N243" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O243" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>297</v>
       </c>
@@ -12486,8 +13222,11 @@
       <c r="N244" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O244" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>298</v>
       </c>
@@ -12530,8 +13269,11 @@
       <c r="N245" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O245" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>299</v>
       </c>
@@ -12574,8 +13316,11 @@
       <c r="N246" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O246" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>300</v>
       </c>
@@ -12618,8 +13363,11 @@
       <c r="N247" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O247" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>301</v>
       </c>
@@ -12662,8 +13410,11 @@
       <c r="N248" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O248" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>302</v>
       </c>
@@ -12706,8 +13457,11 @@
       <c r="N249" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O249" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>303</v>
       </c>
@@ -12750,8 +13504,11 @@
       <c r="N250" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O250" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>304</v>
       </c>
@@ -12794,8 +13551,11 @@
       <c r="N251" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O251" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>305</v>
       </c>
@@ -12838,8 +13598,11 @@
       <c r="N252" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O252" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>306</v>
       </c>
@@ -12882,8 +13645,11 @@
       <c r="N253" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O253" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>307</v>
       </c>
@@ -12926,8 +13692,11 @@
       <c r="N254" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O254">
+        <v>6444</v>
+      </c>
+    </row>
+    <row r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>308</v>
       </c>
@@ -12970,8 +13739,11 @@
       <c r="N255" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O255">
+        <v>6575</v>
+      </c>
+    </row>
+    <row r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>309</v>
       </c>
@@ -13014,8 +13786,11 @@
       <c r="N256" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O256" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>310</v>
       </c>
@@ -13058,8 +13833,11 @@
       <c r="N257" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O257">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>311</v>
       </c>
@@ -13102,8 +13880,11 @@
       <c r="N258" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O258">
+        <v>4042</v>
+      </c>
+    </row>
+    <row r="259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>312</v>
       </c>
@@ -13146,8 +13927,11 @@
       <c r="N259" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O259">
+        <v>10399</v>
+      </c>
+    </row>
+    <row r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>313</v>
       </c>
@@ -13190,8 +13974,11 @@
       <c r="N260" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O260" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>314</v>
       </c>
@@ -13234,8 +14021,11 @@
       <c r="N261" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O261" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>315</v>
       </c>
@@ -13278,8 +14068,11 @@
       <c r="N262" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O262" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>316</v>
       </c>
@@ -13322,8 +14115,11 @@
       <c r="N263" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O263" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>317</v>
       </c>
@@ -13366,8 +14162,11 @@
       <c r="N264" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O264" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>318</v>
       </c>
@@ -13410,8 +14209,11 @@
       <c r="N265" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O265" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="266" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>319</v>
       </c>
@@ -13454,8 +14256,11 @@
       <c r="N266" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O266" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="267" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>320</v>
       </c>
@@ -13498,8 +14303,11 @@
       <c r="N267" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O267">
+        <v>6443</v>
+      </c>
+    </row>
+    <row r="268" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>321</v>
       </c>
@@ -13542,8 +14350,11 @@
       <c r="N268" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O268" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="269" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>322</v>
       </c>
@@ -13586,8 +14397,11 @@
       <c r="N269" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O269">
+        <v>3093</v>
+      </c>
+    </row>
+    <row r="270" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>326</v>
       </c>
@@ -13630,8 +14444,11 @@
       <c r="N270" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O270">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="271" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>328</v>
       </c>
@@ -13674,8 +14491,11 @@
       <c r="N271" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O271">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="272" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>329</v>
       </c>
@@ -13718,8 +14538,11 @@
       <c r="N272" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O272">
+        <v>9047</v>
+      </c>
+    </row>
+    <row r="273" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>330</v>
       </c>
@@ -13762,8 +14585,11 @@
       <c r="N273" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O273">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="274" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>331</v>
       </c>
@@ -13806,8 +14632,11 @@
       <c r="N274" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O274">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="275" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>332</v>
       </c>
@@ -13850,8 +14679,11 @@
       <c r="N275" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O275">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="276" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>333</v>
       </c>
@@ -13894,8 +14726,11 @@
       <c r="N276" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O276">
+        <v>7537</v>
+      </c>
+    </row>
+    <row r="277" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>334</v>
       </c>
@@ -13938,8 +14773,11 @@
       <c r="N277" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O277">
+        <v>7542</v>
+      </c>
+    </row>
+    <row r="278" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>335</v>
       </c>
@@ -13982,8 +14820,11 @@
       <c r="N278" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O278">
+        <v>12394</v>
+      </c>
+    </row>
+    <row r="279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>336</v>
       </c>
@@ -14026,8 +14867,11 @@
       <c r="N279" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O279">
+        <v>12395</v>
+      </c>
+    </row>
+    <row r="280" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>337</v>
       </c>
@@ -14070,8 +14914,11 @@
       <c r="N280" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O280">
+        <v>12396</v>
+      </c>
+    </row>
+    <row r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>338</v>
       </c>
@@ -14114,8 +14961,11 @@
       <c r="N281" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O281">
+        <v>9299</v>
+      </c>
+    </row>
+    <row r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>340</v>
       </c>
@@ -14158,8 +15008,11 @@
       <c r="N282" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O282">
+        <v>3095</v>
+      </c>
+    </row>
+    <row r="283" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>341</v>
       </c>
@@ -14202,8 +15055,11 @@
       <c r="N283" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O283">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="284" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>342</v>
       </c>
@@ -14246,8 +15102,11 @@
       <c r="N284" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O284">
+        <v>3090</v>
+      </c>
+    </row>
+    <row r="285" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>343</v>
       </c>
@@ -14290,8 +15149,11 @@
       <c r="N285" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O285" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="286" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>345</v>
       </c>
@@ -14334,8 +15196,11 @@
       <c r="N286" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O286" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="287" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>346</v>
       </c>
@@ -14378,8 +15243,11 @@
       <c r="N287" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O287" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="288" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>347</v>
       </c>
@@ -14422,8 +15290,11 @@
       <c r="N288" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O288" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="289" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>348</v>
       </c>
@@ -14466,8 +15337,11 @@
       <c r="N289" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O289" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="290" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>349</v>
       </c>
@@ -14510,8 +15384,11 @@
       <c r="N290" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O290" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="291" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>350</v>
       </c>
@@ -14554,8 +15431,11 @@
       <c r="N291" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O291">
+        <v>40094</v>
+      </c>
+    </row>
+    <row r="292" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>354</v>
       </c>
@@ -14598,8 +15478,11 @@
       <c r="N292" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O292">
+        <v>45167</v>
+      </c>
+    </row>
+    <row r="293" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>355</v>
       </c>
@@ -14642,8 +15525,11 @@
       <c r="N293" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O293">
+        <v>40291</v>
+      </c>
+    </row>
+    <row r="294" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>357</v>
       </c>
@@ -14686,8 +15572,11 @@
       <c r="N294" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O294" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="295" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>358</v>
       </c>
@@ -14730,8 +15619,11 @@
       <c r="N295" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O295" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="296" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>359</v>
       </c>
@@ -14774,8 +15666,11 @@
       <c r="N296" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O296" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="297" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>360</v>
       </c>
@@ -14818,8 +15713,11 @@
       <c r="N297" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O297" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="298" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>361</v>
       </c>
@@ -14862,8 +15760,11 @@
       <c r="N298" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O298">
+        <v>40078</v>
+      </c>
+    </row>
+    <row r="299" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>362</v>
       </c>
@@ -14906,8 +15807,11 @@
       <c r="N299" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O299" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="300" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>363</v>
       </c>
@@ -14950,8 +15854,11 @@
       <c r="N300" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O300" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="301" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>364</v>
       </c>
@@ -14994,8 +15901,11 @@
       <c r="N301" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O301" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="302" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>365</v>
       </c>
@@ -15038,8 +15948,11 @@
       <c r="N302" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O302" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="303" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>366</v>
       </c>
@@ -15082,8 +15995,11 @@
       <c r="N303" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O303" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="304" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>367</v>
       </c>
@@ -15126,8 +16042,11 @@
       <c r="N304" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O304" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="305" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>368</v>
       </c>
@@ -15170,8 +16089,11 @@
       <c r="N305" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O305" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="306" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>369</v>
       </c>
@@ -15214,8 +16136,11 @@
       <c r="N306" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O306" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="307" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>370</v>
       </c>
@@ -15258,8 +16183,11 @@
       <c r="N307" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O307">
+        <v>9182</v>
+      </c>
+    </row>
+    <row r="308" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>372</v>
       </c>
@@ -15302,8 +16230,11 @@
       <c r="N308" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O308">
+        <v>10150</v>
+      </c>
+    </row>
+    <row r="309" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>373</v>
       </c>
@@ -15346,8 +16277,11 @@
       <c r="N309" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O309">
+        <v>10425</v>
+      </c>
+    </row>
+    <row r="310" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>374</v>
       </c>
@@ -15390,8 +16324,11 @@
       <c r="N310" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O310">
+        <v>10111</v>
+      </c>
+    </row>
+    <row r="311" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>375</v>
       </c>
@@ -15434,8 +16371,11 @@
       <c r="N311" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O311">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="312" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>376</v>
       </c>
@@ -15478,8 +16418,11 @@
       <c r="N312" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O312">
+        <v>8389</v>
+      </c>
+    </row>
+    <row r="313" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>378</v>
       </c>
@@ -15522,8 +16465,11 @@
       <c r="N313" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O313">
+        <v>13258</v>
+      </c>
+    </row>
+    <row r="314" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>379</v>
       </c>
@@ -15566,8 +16512,11 @@
       <c r="N314" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O314">
+        <v>12002</v>
+      </c>
+    </row>
+    <row r="315" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>380</v>
       </c>
@@ -15610,8 +16559,11 @@
       <c r="N315" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O315">
+        <v>12003</v>
+      </c>
+    </row>
+    <row r="316" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>381</v>
       </c>
@@ -15654,8 +16606,11 @@
       <c r="N316" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O316">
+        <v>10463</v>
+      </c>
+    </row>
+    <row r="317" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>382</v>
       </c>
@@ -15698,8 +16653,11 @@
       <c r="N317" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O317">
+        <v>10953</v>
+      </c>
+    </row>
+    <row r="318" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>383</v>
       </c>
@@ -15742,8 +16700,11 @@
       <c r="N318" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O318">
+        <v>12745</v>
+      </c>
+    </row>
+    <row r="319" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>384</v>
       </c>
@@ -15786,8 +16747,11 @@
       <c r="N319" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O319">
+        <v>45306</v>
+      </c>
+    </row>
+    <row r="320" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>385</v>
       </c>
@@ -15830,8 +16794,11 @@
       <c r="N320" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O320">
+        <v>45303</v>
+      </c>
+    </row>
+    <row r="321" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>386</v>
       </c>
@@ -15874,8 +16841,11 @@
       <c r="N321" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O321">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="322" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>389</v>
       </c>
@@ -15918,8 +16888,11 @@
       <c r="N322" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O322">
+        <v>40496</v>
+      </c>
+    </row>
+    <row r="323" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>390</v>
       </c>
@@ -15962,8 +16935,11 @@
       <c r="N323" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O323">
+        <v>11008</v>
+      </c>
+    </row>
+    <row r="324" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>391</v>
       </c>
@@ -16006,8 +16982,11 @@
       <c r="N324" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O324">
+        <v>40491</v>
+      </c>
+    </row>
+    <row r="325" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>392</v>
       </c>
@@ -16050,8 +17029,11 @@
       <c r="N325" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O325">
+        <v>9437</v>
+      </c>
+    </row>
+    <row r="326" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>393</v>
       </c>
@@ -16094,8 +17076,11 @@
       <c r="N326" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O326">
+        <v>10575</v>
+      </c>
+    </row>
+    <row r="327" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>395</v>
       </c>
@@ -16138,8 +17123,11 @@
       <c r="N327" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O327">
+        <v>10191</v>
+      </c>
+    </row>
+    <row r="328" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>396</v>
       </c>
@@ -16182,8 +17170,11 @@
       <c r="N328" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O328">
+        <v>10190</v>
+      </c>
+    </row>
+    <row r="329" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>397</v>
       </c>
@@ -16226,8 +17217,11 @@
       <c r="N329" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O329">
+        <v>10574</v>
+      </c>
+    </row>
+    <row r="330" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>398</v>
       </c>
@@ -16270,8 +17264,11 @@
       <c r="N330" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O330">
+        <v>10322</v>
+      </c>
+    </row>
+    <row r="331" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>399</v>
       </c>
@@ -16314,8 +17311,11 @@
       <c r="N331" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O331">
+        <v>11980</v>
+      </c>
+    </row>
+    <row r="332" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>400</v>
       </c>
@@ -16358,8 +17358,11 @@
       <c r="N332" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O332">
+        <v>10978</v>
+      </c>
+    </row>
+    <row r="333" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>401</v>
       </c>
@@ -16402,8 +17405,11 @@
       <c r="N333" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O333">
+        <v>10323</v>
+      </c>
+    </row>
+    <row r="334" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>402</v>
       </c>
@@ -16446,8 +17452,11 @@
       <c r="N334" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O334">
+        <v>12779</v>
+      </c>
+    </row>
+    <row r="335" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>404</v>
       </c>
@@ -16490,8 +17499,11 @@
       <c r="N335" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O335">
+        <v>6764</v>
+      </c>
+    </row>
+    <row r="336" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>405</v>
       </c>
@@ -16534,8 +17546,11 @@
       <c r="N336" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O336">
+        <v>10135</v>
+      </c>
+    </row>
+    <row r="337" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>407</v>
       </c>
@@ -16578,8 +17593,11 @@
       <c r="N337" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O337">
+        <v>12615</v>
+      </c>
+    </row>
+    <row r="338" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>408</v>
       </c>
@@ -16622,8 +17640,11 @@
       <c r="N338" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O338">
+        <v>10821</v>
+      </c>
+    </row>
+    <row r="339" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>409</v>
       </c>
@@ -16666,8 +17687,11 @@
       <c r="N339" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O339">
+        <v>9044</v>
+      </c>
+    </row>
+    <row r="340" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>410</v>
       </c>
@@ -16710,8 +17734,11 @@
       <c r="N340" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O340">
+        <v>9685</v>
+      </c>
+    </row>
+    <row r="341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>411</v>
       </c>
@@ -16754,8 +17781,11 @@
       <c r="N341" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O341">
+        <v>13228</v>
+      </c>
+    </row>
+    <row r="342" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>412</v>
       </c>
@@ -16798,8 +17828,11 @@
       <c r="N342" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O342">
+        <v>12616</v>
+      </c>
+    </row>
+    <row r="343" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>413</v>
       </c>
@@ -16842,8 +17875,11 @@
       <c r="N343" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O343">
+        <v>10822</v>
+      </c>
+    </row>
+    <row r="344" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>414</v>
       </c>
@@ -16886,8 +17922,11 @@
       <c r="N344" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O344">
+        <v>12130</v>
+      </c>
+    </row>
+    <row r="345" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>417</v>
       </c>
@@ -16930,8 +17969,11 @@
       <c r="N345" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O345">
+        <v>10562</v>
+      </c>
+    </row>
+    <row r="346" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>419</v>
       </c>
@@ -16974,8 +18016,11 @@
       <c r="N346" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O346">
+        <v>8787</v>
+      </c>
+    </row>
+    <row r="347" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>421</v>
       </c>
@@ -17018,8 +18063,11 @@
       <c r="N347" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O347">
+        <v>8915</v>
+      </c>
+    </row>
+    <row r="348" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>422</v>
       </c>
@@ -17062,8 +18110,11 @@
       <c r="N348" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O348">
+        <v>8916</v>
+      </c>
+    </row>
+    <row r="349" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>423</v>
       </c>
@@ -17106,8 +18157,11 @@
       <c r="N349" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O349">
+        <v>3089</v>
+      </c>
+    </row>
+    <row r="350" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>424</v>
       </c>
@@ -17150,8 +18204,11 @@
       <c r="N350" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O350">
+        <v>6030</v>
+      </c>
+    </row>
+    <row r="351" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>426</v>
       </c>
@@ -17194,8 +18251,11 @@
       <c r="N351" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O351">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="352" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>427</v>
       </c>
@@ -17238,8 +18298,11 @@
       <c r="N352" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O352">
+        <v>8402</v>
+      </c>
+    </row>
+    <row r="353" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>428</v>
       </c>
@@ -17282,8 +18345,11 @@
       <c r="N353" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O353">
+        <v>8401</v>
+      </c>
+    </row>
+    <row r="354" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>429</v>
       </c>
@@ -17326,8 +18392,11 @@
       <c r="N354" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O354">
+        <v>3037</v>
+      </c>
+    </row>
+    <row r="355" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>430</v>
       </c>
@@ -17370,8 +18439,11 @@
       <c r="N355" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O355">
+        <v>40084</v>
+      </c>
+    </row>
+    <row r="356" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>431</v>
       </c>
@@ -17414,8 +18486,11 @@
       <c r="N356" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O356">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="357" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>432</v>
       </c>
@@ -17458,8 +18533,11 @@
       <c r="N357" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O357">
+        <v>41080</v>
+      </c>
+    </row>
+    <row r="358" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>433</v>
       </c>
@@ -17502,8 +18580,11 @@
       <c r="N358" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O358">
+        <v>41079</v>
+      </c>
+    </row>
+    <row r="359" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>434</v>
       </c>
@@ -17546,8 +18627,11 @@
       <c r="N359" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O359">
+        <v>40505</v>
+      </c>
+    </row>
+    <row r="360" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>436</v>
       </c>
@@ -17590,8 +18674,11 @@
       <c r="N360" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O360">
+        <v>10201</v>
+      </c>
+    </row>
+    <row r="361" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>437</v>
       </c>
@@ -17634,8 +18721,11 @@
       <c r="N361" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O361">
+        <v>10202</v>
+      </c>
+    </row>
+    <row r="362" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>438</v>
       </c>
@@ -17678,8 +18768,11 @@
       <c r="N362" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O362">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="363" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>439</v>
       </c>
@@ -17722,8 +18815,11 @@
       <c r="N363" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O363">
+        <v>10434</v>
+      </c>
+    </row>
+    <row r="364" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>441</v>
       </c>
@@ -17766,8 +18862,11 @@
       <c r="N364" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O364">
+        <v>9308</v>
+      </c>
+    </row>
+    <row r="365" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>442</v>
       </c>
@@ -17810,8 +18909,11 @@
       <c r="N365" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O365">
+        <v>12617</v>
+      </c>
+    </row>
+    <row r="366" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>444</v>
       </c>
@@ -17854,8 +18956,11 @@
       <c r="N366" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O366">
+        <v>6277</v>
+      </c>
+    </row>
+    <row r="367" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>445</v>
       </c>
@@ -17898,8 +19003,11 @@
       <c r="N367" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O367">
+        <v>10141</v>
+      </c>
+    </row>
+    <row r="368" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>446</v>
       </c>
@@ -17942,8 +19050,11 @@
       <c r="N368" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O368">
+        <v>10823</v>
+      </c>
+    </row>
+    <row r="369" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>447</v>
       </c>
@@ -17986,8 +19097,11 @@
       <c r="N369" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O369">
+        <v>12618</v>
+      </c>
+    </row>
+    <row r="370" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>448</v>
       </c>
@@ -18030,8 +19144,11 @@
       <c r="N370" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O370">
+        <v>10175</v>
+      </c>
+    </row>
+    <row r="371" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>449</v>
       </c>
@@ -18074,8 +19191,11 @@
       <c r="N371" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O371">
+        <v>10137</v>
+      </c>
+    </row>
+    <row r="372" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>450</v>
       </c>
@@ -18118,8 +19238,11 @@
       <c r="N372" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O372">
+        <v>10824</v>
+      </c>
+    </row>
+    <row r="373" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>451</v>
       </c>
@@ -18162,8 +19285,11 @@
       <c r="N373" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O373">
+        <v>10142</v>
+      </c>
+    </row>
+    <row r="374" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>453</v>
       </c>
@@ -18206,8 +19332,11 @@
       <c r="N374" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O374">
+        <v>12775</v>
+      </c>
+    </row>
+    <row r="375" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>454</v>
       </c>
@@ -18250,8 +19379,11 @@
       <c r="N375" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O375">
+        <v>10455</v>
+      </c>
+    </row>
+    <row r="376" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>455</v>
       </c>
@@ -18294,8 +19426,11 @@
       <c r="N376" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O376">
+        <v>12776</v>
+      </c>
+    </row>
+    <row r="377" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>456</v>
       </c>
@@ -18338,8 +19473,11 @@
       <c r="N377" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O377">
+        <v>12777</v>
+      </c>
+    </row>
+    <row r="378" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>457</v>
       </c>
@@ -18381,6 +19519,9 @@
       </c>
       <c r="N378" t="s">
         <v>461</v>
+      </c>
+      <c r="O378">
+        <v>13229</v>
       </c>
     </row>
   </sheetData>
